--- a/VerveStacks_JPN/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11753E84-5E30-4045-9997-6D8330E66B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B188D12-5559-49DF-A9AA-5B9BC80516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BC4215-EB3C-FD25-424B-6FD4F33FBE3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD7FEFC-FAC6-E13A-FE4F-1E1D66B690B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C573063-5C7E-5CF2-0512-742A9C6AF0C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F6561E-18D7-9D59-1716-3CE6EB8215AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
   <dimension ref="B2:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1681,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="3">
-        <f>SUMIFS(iea_data!I3:I9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
+        <f>SUMIFS(iea_data!I3:I9999,iea_data!$B$3:$B$9999,Veda!$Q$9)+R26-R27</f>
         <v>1008.91</v>
       </c>
       <c r="R10" s="2" t="s">

--- a/VerveStacks_JPN/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_JPN/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B188D12-5559-49DF-A9AA-5B9BC80516DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C8014-B3BB-47C5-91EA-C789FBCD08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD7FEFC-FAC6-E13A-FE4F-1E1D66B690B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5435E30-E134-BA7A-310C-7524EE10CD2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F6561E-18D7-9D59-1716-3CE6EB8215AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FAD9A9-EA48-9D01-6B93-57E2C2D3CD93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
